--- a/memory_benchmarks/memory_benchmark_long_rand.xlsx
+++ b/memory_benchmarks/memory_benchmark_long_rand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitrepos\hpc_benchmark\hpc_cpp\hpc_cpp\memory_benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E3E0FA-373B-4517-ABCF-1409C51DE58A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C316C379-CC2A-4625-94F9-FD5C6ABAA4F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
   <si>
     <t>name</t>
   </si>
@@ -187,6 +187,15 @@
   </si>
   <si>
     <t>BM_WriteSeqIndex&lt;long&gt;/8388608/real_time</t>
+  </si>
+  <si>
+    <t>Bytes</t>
+  </si>
+  <si>
+    <t>bytes/nanosec</t>
+  </si>
+  <si>
+    <t>op/nsec</t>
   </si>
 </sst>
 </file>
@@ -1251,6 +1260,65 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bytes</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> written</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1316,6 +1384,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>bytes / nanosec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1348,6 +1471,676 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="494306512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cost of writing to L1, L2, L3,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> main memory</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>write_seq</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>memory_benchmark_long_rand!$K$2:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8388608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>memory_benchmark_long_rand!$M$2:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>7.4658496093749999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9913574218750005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5267578124999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3309204101562497E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7293090820312493E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5796813964843746E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4607086181640631E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6000823974609369E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10181388854980471</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.2281723022460932E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.8301887512207031E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.2969417572021484E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.9117288589477539E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.4686627388000488E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-70FF-465A-8D0D-34B4B7B6BF49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>write_rand</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>memory_benchmark_long_rand!$M$16:$M$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>8.6401367187499994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.185107421875E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1524169921875E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9667480468749996E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2984619140624993E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18050811767578126</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26492767333984374</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29650497436523438</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.37744522094726563</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47389411926269526</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51445102691650391</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.53790092468261719</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.60527563095092773</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2119174003601074</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-70FF-465A-8D0D-34B4B7B6BF49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>write_seq_index</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>memory_benchmark_long_rand!$M$30:$M$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>8.2096875E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9499999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5323486328125003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1892578125000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4356079101562495E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0065917968750006E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0976104736328126E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0166473388671869E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3658828735351557E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.5485687255859375E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.7400665283203125E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.9312782287597642E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1218867301940918</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14920234680175781</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-70FF-465A-8D0D-34B4B7B6BF49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="445009440"/>
+        <c:axId val="445007472"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="445009440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bytes written</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445007472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="445007472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>nsec/op</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445009440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1474,6 +2267,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1990,20 +2823,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1112520</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2023,6 +3372,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABD87CE9-0C4A-4D9A-8166-60090777348A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2328,21 +3713,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="23.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2373,8 +3759,17 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2397,8 +3792,12 @@
         <f>K2/C2</f>
         <v>13.394322847653966</v>
       </c>
+      <c r="M2">
+        <f>1/L2</f>
+        <v>7.4658496093749999E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2422,8 +3821,12 @@
         <f t="shared" ref="L3:L43" si="0">K3/C3</f>
         <v>12.513518632800327</v>
       </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M43" si="1">1/L3</f>
+        <v>7.9913574218750005E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2440,15 +3843,19 @@
         <v>11</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K15" si="1">2*K3</f>
+        <f t="shared" ref="K4:K15" si="2">2*K3</f>
         <v>4096</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
         <v>11.727787067366059</v>
       </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>8.5267578124999993E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2465,15 +3872,19 @@
         <v>11</v>
       </c>
       <c r="K5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8192</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
         <v>13.640851953795611</v>
       </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>7.3309204101562497E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2490,15 +3901,19 @@
         <v>11</v>
       </c>
       <c r="K6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16384</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
         <v>12.937767003324463</v>
       </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>7.7293090820312493E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2515,15 +3930,19 @@
         <v>11</v>
       </c>
       <c r="K7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32768</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
         <v>11.655444459857936</v>
       </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>8.5796813964843746E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2540,15 +3959,19 @@
         <v>11</v>
       </c>
       <c r="K8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65536</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
         <v>11.819340969302825</v>
       </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>8.4607086181640631E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2565,15 +3988,19 @@
         <v>11</v>
       </c>
       <c r="K9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>131072</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
         <v>11.627795569670786</v>
       </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>8.6000823974609369E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2590,15 +4017,19 @@
         <v>11</v>
       </c>
       <c r="K10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>262144</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
         <v>9.8218427195306077</v>
       </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>0.10181388854980471</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -2615,15 +4046,19 @@
         <v>11</v>
       </c>
       <c r="K11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>524288</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
         <v>10.836381975189223</v>
       </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>9.2281723022460932E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2640,15 +4075,19 @@
         <v>11</v>
       </c>
       <c r="K12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1048576</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
         <v>10.172744647205487</v>
       </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>9.8301887512207031E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2665,15 +4104,19 @@
         <v>11</v>
       </c>
       <c r="K13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2097152</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
         <v>10.756225284785943</v>
       </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>9.2969417572021484E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2690,15 +4133,19 @@
         <v>11</v>
       </c>
       <c r="K14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4194304</v>
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
         <v>11.221167248551975</v>
       </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>8.9117288589477539E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -2715,15 +4162,19 @@
         <v>11</v>
       </c>
       <c r="K15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8388608</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
         <v>10.561153434077521</v>
       </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>9.4686627388000488E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2746,8 +4197,12 @@
         <f t="shared" si="0"/>
         <v>11.573890929641143</v>
       </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>8.6401367187499994E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -2771,8 +4226,12 @@
         <f t="shared" si="0"/>
         <v>12.217310640633295</v>
       </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>8.185107421875E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -2789,15 +4248,19 @@
         <v>11</v>
       </c>
       <c r="K18">
-        <f t="shared" ref="K18:K43" si="2">2*K17</f>
+        <f t="shared" ref="K18:K43" si="3">2*K17</f>
         <v>4096</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
         <v>12.266300913683693</v>
       </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>8.1524169921875E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -2814,15 +4277,19 @@
         <v>11</v>
       </c>
       <c r="K19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8192</v>
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
         <v>12.552173033666547</v>
       </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>7.9667480468749996E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -2839,15 +4306,19 @@
         <v>11</v>
       </c>
       <c r="K20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16384</v>
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
         <v>12.050425854282816</v>
       </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>8.2984619140624993E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -2864,15 +4335,19 @@
         <v>11</v>
       </c>
       <c r="K21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32768</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
         <v>5.5399170567838114</v>
       </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>0.18050811767578126</v>
+      </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -2889,15 +4364,19 @@
         <v>11</v>
       </c>
       <c r="K22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>65536</v>
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
         <v>3.7746151143569691</v>
       </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>0.26492767333984374</v>
+      </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -2914,15 +4393,19 @@
         <v>11</v>
       </c>
       <c r="K23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>131072</v>
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
         <v>3.3726246992679507</v>
       </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>0.29650497436523438</v>
+      </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -2939,15 +4422,19 @@
         <v>11</v>
       </c>
       <c r="K24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>262144</v>
       </c>
       <c r="L24">
         <f t="shared" si="0"/>
         <v>2.6493910758502199</v>
       </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>0.37744522094726563</v>
+      </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -2964,15 +4451,19 @@
         <v>11</v>
       </c>
       <c r="K25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>524288</v>
       </c>
       <c r="L25">
         <f t="shared" si="0"/>
         <v>2.1101760063109514</v>
       </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>0.47389411926269526</v>
+      </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -2989,15 +4480,19 @@
         <v>11</v>
       </c>
       <c r="K26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1048576</v>
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
         <v>1.9438196206814091</v>
       </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>0.51445102691650391</v>
+      </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -3014,15 +4509,19 @@
         <v>11</v>
       </c>
       <c r="K27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2097152</v>
       </c>
       <c r="L27">
         <f t="shared" si="0"/>
         <v>1.8590784178146553</v>
       </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>0.53790092468261719</v>
+      </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -3039,15 +4538,19 @@
         <v>11</v>
       </c>
       <c r="K28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4194304</v>
       </c>
       <c r="L28">
         <f t="shared" si="0"/>
         <v>1.652139866310055</v>
       </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>0.60527563095092773</v>
+      </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -3064,15 +4567,19 @@
         <v>11</v>
       </c>
       <c r="K29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8388608</v>
       </c>
       <c r="L29">
         <f t="shared" si="0"/>
         <v>0.82513874270875343</v>
       </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>1.2119174003601074</v>
+      </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -3095,8 +4602,12 @@
         <f t="shared" si="0"/>
         <v>12.180731605192037</v>
       </c>
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>8.2096875E-2</v>
+      </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -3113,15 +4624,19 @@
         <v>11</v>
       </c>
       <c r="K31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2048</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
         <v>11.173184357541899</v>
       </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>8.9499999999999996E-2</v>
+      </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -3138,15 +4653,19 @@
         <v>11</v>
       </c>
       <c r="K32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4096</v>
       </c>
       <c r="L32">
         <f t="shared" si="0"/>
         <v>11.720102436442193</v>
       </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>8.5323486328125003E-2</v>
+      </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -3163,15 +4682,19 @@
         <v>11</v>
       </c>
       <c r="K33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8192</v>
       </c>
       <c r="L33">
         <f t="shared" si="0"/>
         <v>12.211118796060006</v>
       </c>
+      <c r="M33">
+        <f t="shared" si="1"/>
+        <v>8.1892578125000004E-2</v>
+      </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -3188,15 +4711,19 @@
         <v>11</v>
       </c>
       <c r="K34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16384</v>
       </c>
       <c r="L34">
         <f t="shared" si="0"/>
         <v>11.854510198322831</v>
       </c>
+      <c r="M34">
+        <f t="shared" si="1"/>
+        <v>8.4356079101562495E-2</v>
+      </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -3213,15 +4740,19 @@
         <v>11</v>
       </c>
       <c r="K35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32768</v>
       </c>
       <c r="L35">
         <f t="shared" si="0"/>
         <v>11.102979046379875</v>
       </c>
+      <c r="M35">
+        <f t="shared" si="1"/>
+        <v>9.0065917968750006E-2</v>
+      </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -3238,15 +4769,19 @@
         <v>11</v>
       </c>
       <c r="K36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>65536</v>
       </c>
       <c r="L36">
         <f t="shared" si="0"/>
         <v>10.991897299826743</v>
       </c>
+      <c r="M36">
+        <f t="shared" si="1"/>
+        <v>9.0976104736328126E-2</v>
+      </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -3263,15 +4798,19 @@
         <v>11</v>
       </c>
       <c r="K37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>131072</v>
       </c>
       <c r="L37">
         <f t="shared" si="0"/>
         <v>11.09059678633983</v>
       </c>
+      <c r="M37">
+        <f t="shared" si="1"/>
+        <v>9.0166473388671869E-2</v>
+      </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -3288,15 +4827,19 @@
         <v>11</v>
       </c>
       <c r="K38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>262144</v>
       </c>
       <c r="L38">
         <f t="shared" si="0"/>
         <v>10.677050028307152</v>
       </c>
+      <c r="M38">
+        <f t="shared" si="1"/>
+        <v>9.3658828735351557E-2</v>
+      </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -3313,15 +4856,19 @@
         <v>11</v>
       </c>
       <c r="K39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>524288</v>
       </c>
       <c r="L39">
         <f t="shared" si="0"/>
         <v>10.472773760536935</v>
       </c>
+      <c r="M39">
+        <f t="shared" si="1"/>
+        <v>9.5485687255859375E-2</v>
+      </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -3338,15 +4885,19 @@
         <v>11</v>
       </c>
       <c r="K40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1048576</v>
       </c>
       <c r="L40">
         <f t="shared" si="0"/>
         <v>10.266870324677868</v>
       </c>
+      <c r="M40">
+        <f t="shared" si="1"/>
+        <v>9.7400665283203125E-2</v>
+      </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -3363,15 +4914,19 @@
         <v>11</v>
       </c>
       <c r="K41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2097152</v>
       </c>
       <c r="L41">
         <f t="shared" si="0"/>
         <v>10.069197307393146</v>
       </c>
+      <c r="M41">
+        <f t="shared" si="1"/>
+        <v>9.9312782287597642E-2</v>
+      </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -3388,15 +4943,19 @@
         <v>11</v>
       </c>
       <c r="K42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4194304</v>
       </c>
       <c r="L42">
         <f t="shared" si="0"/>
         <v>8.2043385560315318</v>
       </c>
+      <c r="M42">
+        <f t="shared" si="1"/>
+        <v>0.1218867301940918</v>
+      </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -3413,12 +4972,16 @@
         <v>11</v>
       </c>
       <c r="K43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8388608</v>
       </c>
       <c r="L43">
         <f t="shared" si="0"/>
         <v>6.7023074464685202</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="1"/>
+        <v>0.14920234680175781</v>
       </c>
     </row>
   </sheetData>
